--- a/data/modeloutput/scientific_ols_table.xlsx
+++ b/data/modeloutput/scientific_ols_table.xlsx
@@ -469,27 +469,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.604*</t>
+          <t>1.665**</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.31 to 2.90</t>
+          <t>0.41 to 2.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.010</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.847*</t>
+          <t>0.846*</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +511,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.07 to 1.62</t>
+          <t>0.08 to 1.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.032</t>
+          <t>0.031</t>
         </is>
       </c>
     </row>
@@ -533,27 +533,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.400</t>
+          <t>2.347</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-0.24 to 5.04</t>
+          <t>-0.28 to 4.97</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.074</t>
+          <t>0.079</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.160*</t>
+          <t>0.161*</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,17 +575,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.03 to 0.29</t>
+          <t>0.03 to 0.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.021</t>
+          <t>0.019</t>
         </is>
       </c>
     </row>
@@ -597,27 +597,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2.604</t>
+          <t>2.438</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-1.77 to 6.98</t>
+          <t>-1.94 to 6.81</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.241</t>
+          <t>0.271</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-0.030</t>
+          <t>-0.036</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-0.21 to 0.15</t>
+          <t>-0.22 to 0.15</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.743</t>
+          <t>0.705</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.564</t>
+          <t>0.558</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.055</t>
+          <t>0.058</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.713</t>
+          <t>0.701</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-0.069</t>
+          <t>-0.070</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.721</t>
+          <t>0.716</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.232</t>
+          <t>0.233</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-0.11 to 0.57</t>
+          <t>-0.10 to 0.57</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.176</t>
+          <t>0.171</t>
         </is>
       </c>
     </row>
@@ -853,7 +853,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.045</t>
+          <t>0.033</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -863,17 +863,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-0.42 to 0.51</t>
+          <t>-0.43 to 0.50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.849</t>
+          <t>0.889</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.662**</t>
+          <t>0.654**</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -895,17 +895,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.19 to 1.13</t>
+          <t>0.18 to 1.13</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.007</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.237</t>
+          <t>0.233</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-0.25 to 0.72</t>
+          <t>-0.25 to 0.71</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.333</t>
+          <t>0.338</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.685*</t>
+          <t>0.699*</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -959,17 +959,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.03 to 1.34</t>
+          <t>0.05 to 1.35</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.035</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.162</t>
+          <t>0.164</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.525</t>
+          <t>0.516</t>
         </is>
       </c>
     </row>
@@ -1013,27 +1013,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-0.278</t>
+          <t>-0.290</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-1.21 to 0.66</t>
+          <t>-1.21 to 0.63</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.556</t>
+          <t>0.533</t>
         </is>
       </c>
     </row>
@@ -1045,22 +1045,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3.408***</t>
+          <t>3.391***</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.89 to 4.93</t>
+          <t>1.89 to 4.90</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.292</t>
+          <t>0.298</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.166</t>
+          <t>0.173</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.310**</t>
+          <t>2.378**</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.004</t>
         </is>
       </c>
     </row>

--- a/data/modeloutput/scientific_ols_table.xlsx
+++ b/data/modeloutput/scientific_ols_table.xlsx
@@ -469,27 +469,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.665**</t>
+          <t>0.152*</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.41 to 2.92</t>
+          <t>0.03 to 0.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.010</t>
+          <t>0.013</t>
         </is>
       </c>
     </row>
@@ -501,27 +501,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.846*</t>
+          <t>0.148*</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.08 to 1.61</t>
+          <t>0.03 to 0.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>0.016</t>
         </is>
       </c>
     </row>
@@ -533,59 +533,59 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.347</t>
+          <t>0.113</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-0.28 to 4.97</t>
+          <t>-0.00 to 0.23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.079</t>
+          <t>0.051</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Number of employees (LOG)</t>
+          <t>Log Number of employees</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.161*</t>
+          <t>0.151*</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.03 to 0.30</t>
+          <t>0.03 to 0.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.019</t>
+          <t>0.017</t>
         </is>
       </c>
     </row>
@@ -597,91 +597,91 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2.438</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-1.94 to 6.81</t>
+          <t>-0.05 to 0.17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.271</t>
+          <t>0.275</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Number of Data Breaches (LOG, min = 1)</t>
+          <t>Square Root of Data Breaches</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-0.036</t>
+          <t>-0.034</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-0.22 to 0.15</t>
+          <t>-0.14 to 0.08</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.705</t>
+          <t>0.554</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Age (Square Root)</t>
+          <t>Square Root of Age</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.015</t>
+          <t>-0.017</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-0.04 to 0.07</t>
+          <t>-0.13 to 0.10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.558</t>
+          <t>0.772</t>
         </is>
       </c>
     </row>
@@ -693,27 +693,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.058</t>
+          <t>-0.046</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-0.24 to 0.35</t>
+          <t>-0.13 to 0.04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.701</t>
+          <t>0.263</t>
         </is>
       </c>
     </row>
@@ -725,27 +725,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-0.070</t>
+          <t>-0.117*</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-2.29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-0.45 to 0.31</t>
+          <t>-0.22 to -0.02</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.716</t>
+          <t>0.024</t>
         </is>
       </c>
     </row>
@@ -757,27 +757,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.952***</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.38 to 1.53</t>
+          <t>-0.01 to 0.18</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.092</t>
         </is>
       </c>
     </row>
@@ -789,27 +789,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.725***</t>
+          <t>0.099</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.33 to 1.12</t>
+          <t>-0.00 to 0.20</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.053</t>
         </is>
       </c>
     </row>
@@ -821,27 +821,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.233</t>
+          <t>0.018</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-0.10 to 0.57</t>
+          <t>-0.07 to 0.11</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.171</t>
+          <t>0.687</t>
         </is>
       </c>
     </row>
@@ -853,27 +853,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.033</t>
+          <t>-0.025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-0.43 to 0.50</t>
+          <t>-0.12 to 0.07</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.889</t>
+          <t>0.626</t>
         </is>
       </c>
     </row>
@@ -885,27 +885,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.654**</t>
+          <t>0.090</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.18 to 1.13</t>
+          <t>-0.01 to 0.18</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>0.062</t>
         </is>
       </c>
     </row>
@@ -917,27 +917,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.233</t>
+          <t>-0.028</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-0.25 to 0.71</t>
+          <t>-0.12 to 0.07</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.338</t>
+          <t>0.554</t>
         </is>
       </c>
     </row>
@@ -949,27 +949,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.699*</t>
+          <t>0.094</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.05 to 1.35</t>
+          <t>-0.01 to 0.20</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>0.072</t>
         </is>
       </c>
     </row>
@@ -981,27 +981,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.164</t>
+          <t>-0.022</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-0.34 to 0.66</t>
+          <t>-0.12 to 0.07</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.516</t>
+          <t>0.647</t>
         </is>
       </c>
     </row>
@@ -1013,27 +1013,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-0.290</t>
+          <t>-0.042</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-1.21 to 0.63</t>
+          <t>-0.14 to 0.06</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.533</t>
+          <t>0.419</t>
         </is>
       </c>
     </row>
@@ -1045,22 +1045,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3.391***</t>
+          <t>6.681***</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>138.71</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.89 to 4.90</t>
+          <t>6.58 to 6.78</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.298</t>
+          <t>0.265</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.173</t>
+          <t>0.161</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.378**</t>
+          <t>2.550**</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.002</t>
         </is>
       </c>
     </row>
